--- a/ig/ch-elm/ValueSet-bfs-country-codes.xlsx
+++ b/ig/ch-elm/ValueSet-bfs-country-codes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/ch-elm/ValueSet-bfs-country-codes.xlsx
+++ b/ig/ch-elm/ValueSet-bfs-country-codes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/ch-elm/ValueSet-bfs-country-codes.xlsx
+++ b/ig/ch-elm/ValueSet-bfs-country-codes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/ch-elm/ValueSet-bfs-country-codes.xlsx
+++ b/ig/ch-elm/ValueSet-bfs-country-codes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
